--- a/models_shema.xlsx
+++ b/models_shema.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seb92\Desktop\project education\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7716FF-4BD2-4BEF-9DE0-780A74F8BC3A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -135,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -341,14 +335,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -673,27 +659,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="24.296875" customWidth="1"/>
-    <col min="5" max="5" width="31.296875" customWidth="1"/>
-    <col min="6" max="6" width="9.19921875" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -701,17 +687,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="J4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -734,7 +720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>1</v>
       </c>
@@ -754,7 +740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>1</v>
       </c>
@@ -774,7 +760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>1</v>
       </c>
@@ -794,7 +780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -802,7 +788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -822,17 +808,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="J15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -862,7 +848,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>1</v>
       </c>
@@ -888,7 +874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>1</v>
       </c>
@@ -908,7 +894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -934,7 +920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -954,7 +940,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -976,7 +962,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -998,12 +984,12 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>16</v>
       </c>
